--- a/Orginal/Data/DataBase/元データ/EnmData.xlsx
+++ b/Orginal/Data/DataBase/元データ/EnmData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiki\Desktop\Orginal\Data\DataBase\元データ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiki\Documents\GitHub\Original\Orginal\Data\DataBase\元データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40D9F15-5433-4CB5-B0AD-DC0C339078B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F766A1F-34A7-4E02-939A-D632CED8AECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="1590" windowWidth="21600" windowHeight="11385" xr2:uid="{E5E59FA1-B88F-4CF8-98F5-0817A92DDD73}"/>
+    <workbookView xWindow="3825" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{E5E59FA1-B88F-4CF8-98F5-0817A92DDD73}"/>
   </bookViews>
   <sheets>
     <sheet name="EnmStatus" sheetId="1" r:id="rId1"/>
@@ -110,37 +110,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名称</t>
-    <rPh sb="0" eb="2">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>STR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VIT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AGI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スライム</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -211,6 +180,34 @@
   </si>
   <si>
     <t>Monster/Die.fbx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#HP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#MP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#STR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#VIT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#AGI</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -777,7 +774,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -788,30 +785,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B2" s="5">
         <f>IF(A2="","",VLOOKUP(A2, 敵種類リスト,2,))</f>
@@ -863,31 +860,31 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C1" s="10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B3" s="5">
         <f t="shared" ref="B3:B6" si="0">IF(A3="","",VLOOKUP(A3, 敵種類リスト,2,))</f>
@@ -901,12 +898,12 @@
         <v>0</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5">
         <f t="shared" si="0"/>
@@ -920,12 +917,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
@@ -939,12 +936,12 @@
         <v>3</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
@@ -958,45 +955,45 @@
         <v>4</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" ref="B7" si="2">IF(A7="","",VLOOKUP(A7, 敵種類リスト,2,))</f>
         <v>20000</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" ref="D7" si="3">IF(C7="","",VLOOKUP(C7, モーション種類リスト,2,FALSE))</f>
         <v>2</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5">
         <f t="shared" ref="B8" si="4">IF(A8="","",VLOOKUP(A8, 敵種類リスト,2,))</f>
         <v>20000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" ref="D8" si="5">IF(C8="","",VLOOKUP(C8, モーション種類リスト,2,FALSE))</f>
         <v>5</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1058,7 +1055,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2">
         <v>20000</v>
@@ -1072,7 +1069,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <f>IF(B5="", "", C4+1)</f>
@@ -1115,7 +1112,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>

--- a/Orginal/Data/DataBase/元データ/EnmData.xlsx
+++ b/Orginal/Data/DataBase/元データ/EnmData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiki\Documents\GitHub\Original\Orginal\Data\DataBase\元データ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2190487\Documents\GitHub\Original\Orginal\Data\DataBase\元データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F766A1F-34A7-4E02-939A-D632CED8AECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAF21B2-6397-46B4-9900-FCDCB1A430A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{E5E59FA1-B88F-4CF8-98F5-0817A92DDD73}"/>
+    <workbookView xWindow="7350" yWindow="855" windowWidth="15825" windowHeight="14010" activeTab="1" xr2:uid="{E5E59FA1-B88F-4CF8-98F5-0817A92DDD73}"/>
   </bookViews>
   <sheets>
     <sheet name="EnmStatus" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="敵種類" comment="敵の種類">Reference!$B$4:$B$5</definedName>
     <definedName name="敵種類リスト" comment="敵の種類とcode一覧">Reference!$B$4:$C$5</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>モーション種類</t>
     <rPh sb="5" eb="7">
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スライム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>モーション関係</t>
     <rPh sb="5" eb="7">
       <t>カンケイ</t>
@@ -121,57 +117,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵の名前</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイル名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モンスター</t>
-  </si>
-  <si>
-    <t>モンスター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Monster/Monster.fbx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>WALK</t>
   </si>
   <si>
-    <t>Monster/Idle.fbx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Monster/Run.fbx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Monster/Attack.fbx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Monster/Walk.fbx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DIE</t>
   </si>
   <si>
@@ -179,10 +127,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Monster/Die.fbx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>#name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -208,6 +152,100 @@
   </si>
   <si>
     <t>#AGI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モンスターA</t>
+  </si>
+  <si>
+    <t>モンスターA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モンスターB</t>
+  </si>
+  <si>
+    <t>モンスターB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Type</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#TypeID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#Filepath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#NameID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MonsterA/Idle.fbx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MonsterA/Run.fbx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MonsterA/Attack.fbx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MonsterA/Walk.fbx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MonsterA/Die.fbx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MonsterB/Die.fbx</t>
+  </si>
+  <si>
+    <t>MonsterB/Idle.fbx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MonsterB/Run.fbx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MonsterB/Attack.fbx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MonsterB/Walk.fbx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MonsterA/MonsterA.fbx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MonsterB/MonsterB.fbx</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -433,9 +471,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -444,6 +479,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -771,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5975AF20-CCAA-49B9-9D9F-8E05E4C6DEBD}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -784,31 +822,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>39</v>
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5">
         <f>IF(A2="","",VLOOKUP(A2, 敵種類リスト,2,))</f>
@@ -830,10 +868,34 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5">
+        <f>IF(A3="","",VLOOKUP(A3, 敵種類リスト,2,))</f>
+        <v>20001</v>
+      </c>
+      <c r="C3" s="4">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{50608904-0494-4EBC-B582-5B719785F4FF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{50608904-0494-4EBC-B582-5B719785F4FF}">
       <formula1>敵種類</formula1>
     </dataValidation>
   </dataValidations>
@@ -844,10 +906,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95B200B-6109-4962-80AF-93C9747C4447}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -860,31 +922,31 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C1" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>21</v>
+      <c r="A2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5">
         <f t="shared" ref="B3:B6" si="0">IF(A3="","",VLOOKUP(A3, 敵種類リスト,2,))</f>
@@ -897,13 +959,13 @@
         <f t="shared" ref="D3:D6" si="1">IF(C3="","",VLOOKUP(C3, モーション種類リスト,2,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>24</v>
+      <c r="E3" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5">
         <f t="shared" si="0"/>
@@ -916,13 +978,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>26</v>
+      <c r="E4" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
@@ -935,13 +997,13 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>27</v>
+      <c r="E5" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
@@ -954,46 +1016,160 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>28</v>
+      <c r="E6" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" ref="B7" si="2">IF(A7="","",VLOOKUP(A7, 敵種類リスト,2,))</f>
         <v>20000</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" ref="D7" si="3">IF(C7="","",VLOOKUP(C7, モーション種類リスト,2,FALSE))</f>
         <v>2</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>29</v>
+      <c r="E7" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B8" s="5">
         <f t="shared" ref="B8" si="4">IF(A8="","",VLOOKUP(A8, 敵種類リスト,2,))</f>
         <v>20000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" ref="D8" si="5">IF(C8="","",VLOOKUP(C8, モーション種類リスト,2,FALSE))</f>
         <v>5</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>32</v>
+      <c r="E8" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5">
+        <f t="shared" ref="B9:B14" si="6">IF(A9="","",VLOOKUP(A9, 敵種類リスト,2,))</f>
+        <v>20001</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" ref="D9:D14" si="7">IF(C9="","",VLOOKUP(C9, モーション種類リスト,2,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="5">
+        <f t="shared" si="6"/>
+        <v>20001</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="5">
+        <f t="shared" si="6"/>
+        <v>20001</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5">
+        <f t="shared" si="6"/>
+        <v>20001</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="5">
+        <f t="shared" si="6"/>
+        <v>20001</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="5">
+        <f t="shared" si="6"/>
+        <v>20001</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1002,10 +1178,10 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A8" xr:uid="{3EFCDE25-9616-4B3D-B27F-0E9F9D7745CE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A14" xr:uid="{3EFCDE25-9616-4B3D-B27F-0E9F9D7745CE}">
       <formula1>敵種類</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C8" xr:uid="{E2C4371D-A8FF-480B-A59E-B47739D85169}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C14" xr:uid="{E2C4371D-A8FF-480B-A59E-B47739D85169}">
       <formula1>モーション種類</formula1>
     </dataValidation>
   </dataValidations>
@@ -1019,7 +1195,7 @@
   <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1055,7 +1231,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2">
         <v>20000</v>
@@ -1069,7 +1245,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2">
         <f>IF(B5="", "", C4+1)</f>
@@ -1112,7 +1288,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
